--- a/Peaks-dataset-article/redes-ensemble-s/mse_sup/content/results/metrics_2_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/mse_sup/content/results/metrics_2_9.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994673783070633</v>
+        <v>0.9973525866107236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7849386896565943</v>
+        <v>0.8122600222208161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9987788344305438</v>
+        <v>0.9691608515865253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9983310421767606</v>
+        <v>0.9970455838252948</v>
       </c>
       <c r="F2" t="n">
-        <v>0.998715104006533</v>
+        <v>0.9940532337571081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0007559791770713937</v>
+        <v>0.01770326552430962</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3052483114551565</v>
+        <v>1.255418095872513</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009115105041288919</v>
+        <v>0.05240293613909332</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00359408739032608</v>
+        <v>0.04093993027686369</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002252809569377257</v>
+        <v>0.04667144626999713</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03319142550679069</v>
+        <v>0.1657040364817196</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02749507550583184</v>
+        <v>0.1330536189823848</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000009810376539</v>
+        <v>1.001411953807614</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02866559779276777</v>
+        <v>0.1387179870014262</v>
       </c>
       <c r="P2" t="n">
-        <v>2668.374993451441</v>
+        <v>146.0680123270405</v>
       </c>
       <c r="Q2" t="n">
-        <v>4285.823213051543</v>
+        <v>230.1704442429463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994556493787148</v>
+        <v>0.9973826592702316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7849384670539077</v>
+        <v>0.812163785848439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9987555297440337</v>
+        <v>0.9703160096145047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.998271450115246</v>
+        <v>0.9971589745632887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9986735564999414</v>
+        <v>0.994278392736665</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0007726266882757708</v>
+        <v>0.01750216951170702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3052486274073568</v>
+        <v>1.256061628937727</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009289057428096741</v>
+        <v>0.05044005209446401</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003722418420548188</v>
+        <v>0.03936865235493263</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002325654858730897</v>
+        <v>0.04490435222469831</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03306629366960233</v>
+        <v>0.1727771143498103</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02779616319342961</v>
+        <v>0.1322957652825933</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000010026412057</v>
+        <v>1.001395915055876</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02897950340656402</v>
+        <v>0.1379278699006612</v>
       </c>
       <c r="P3" t="n">
-        <v>2668.331429129741</v>
+        <v>146.0908608672781</v>
       </c>
       <c r="Q3" t="n">
-        <v>4285.779648729843</v>
+        <v>230.1932927831839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994794396449387</v>
+        <v>0.9974086494768584</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7849380034094603</v>
+        <v>0.8120559255979419</v>
       </c>
       <c r="D4" t="n">
-        <v>0.998803630679497</v>
+        <v>0.9715138207837054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9983960209240846</v>
+        <v>0.9972764425320984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987602938040377</v>
+        <v>0.9945117670044527</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0007388598587967438</v>
+        <v>0.01732837288032005</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3052492854833467</v>
+        <v>1.256782890929451</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008930019235161659</v>
+        <v>0.04840469037290322</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003454156175082449</v>
+        <v>0.03774087543778502</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002173578247329058</v>
+        <v>0.04307278290534412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03332899431709244</v>
+        <v>0.1803022654682103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02718197672717611</v>
+        <v>0.1316372777002018</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000009588218359</v>
+        <v>1.001382053612342</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02833916975090085</v>
+        <v>0.1372413491386301</v>
       </c>
       <c r="P4" t="n">
-        <v>2668.420804582538</v>
+        <v>146.1108201400153</v>
       </c>
       <c r="Q4" t="n">
-        <v>4285.86902418264</v>
+        <v>230.2132520559211</v>
       </c>
     </row>
     <row r="5">
@@ -687,272 +687,272 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994443785294733</v>
+        <v>0.9974295149275144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7849375878685473</v>
+        <v>0.8119350801102593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9987337820030672</v>
+        <v>0.9727530972059604</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9982168888843764</v>
+        <v>0.9973978401491324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9986354160761742</v>
+        <v>0.9947530993387945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0007886240226830634</v>
+        <v>0.01718884551570654</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3052498752833522</v>
+        <v>1.257590985262027</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009451388358707987</v>
+        <v>0.04629886947462784</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003839915597012563</v>
+        <v>0.03605864460663114</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002392526505992324</v>
+        <v>0.0411787570406295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03295377896817252</v>
+        <v>0.1883176757760545</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02808245043943038</v>
+        <v>0.1311062375163994</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000010234010202</v>
+        <v>1.001370925371992</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02927797849332333</v>
+        <v>0.1366877014747985</v>
       </c>
       <c r="P5" t="n">
-        <v>2668.290441749082</v>
+        <v>146.1269892441385</v>
       </c>
       <c r="Q5" t="n">
-        <v>4285.738661349184</v>
+        <v>230.2294211600443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994336730614712</v>
+        <v>0.9974441232596961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7849362055607743</v>
+        <v>0.8117996820807794</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998713570166774</v>
+        <v>0.9740325767062273</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9981671063854389</v>
+        <v>0.9975230709968401</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9986005412917017</v>
+        <v>0.9950021679814866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0008038188804924541</v>
+        <v>0.01709115953114242</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3052518372685785</v>
+        <v>1.25849639250861</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009602254887782984</v>
+        <v>0.04412473413065485</v>
       </c>
       <c r="J6" t="n">
-        <v>0.003947121812291896</v>
+        <v>0.0343232959385715</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002453672504259069</v>
+        <v>0.03922401503461317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03285177458163003</v>
+        <v>0.196844370190955</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02835169978136151</v>
+        <v>0.1307331615587354</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00001043119457</v>
+        <v>1.001363134261495</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02955869033716345</v>
+        <v>0.136298742901243</v>
       </c>
       <c r="P6" t="n">
-        <v>2668.252273174365</v>
+        <v>146.13838787128</v>
       </c>
       <c r="Q6" t="n">
-        <v>4285.700492774467</v>
+        <v>230.2408197871859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994916476426613</v>
+        <v>0.997451060348341</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7849360918192583</v>
+        <v>0.8116479107177935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9988298628525659</v>
+        <v>0.9753501810958675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9984667134983146</v>
+        <v>0.9976518619625084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9988092919112728</v>
+        <v>0.995258513797711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0007215323781582022</v>
+        <v>0.01704477118743183</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3052519987081496</v>
+        <v>1.259511288311739</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0008734215309006624</v>
+        <v>0.0418858156702238</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003301920279068795</v>
+        <v>0.03253861401058391</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002087669811609874</v>
+        <v>0.03721216027190746</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03348394136712931</v>
+        <v>0.2059262776550833</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02686135473423115</v>
+        <v>0.1305556248785621</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000009363358846</v>
+        <v>1.001359434480885</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0280048982159372</v>
+        <v>0.1361136481170432</v>
       </c>
       <c r="P7" t="n">
-        <v>2668.46826660917</v>
+        <v>146.143823595022</v>
       </c>
       <c r="Q7" t="n">
-        <v>4285.916486209272</v>
+        <v>230.2462555109279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994235615541807</v>
+        <v>0.9974488338758669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.784934531592395</v>
+        <v>0.8114778150902741</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9986948316278402</v>
+        <v>0.9767038301346265</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9981216668696619</v>
+        <v>0.9977840235289528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9985686452226483</v>
+        <v>0.9955217271524078</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008181706972919117</v>
+        <v>0.01705965961911797</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3052542132236974</v>
+        <v>1.26064871855618</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000974212433298688</v>
+        <v>0.03958564890874994</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004044975447897775</v>
+        <v>0.03070722499984101</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002509595917480404</v>
+        <v>0.03514640765283298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03276010789282965</v>
+        <v>0.2155957010449485</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02860368328191164</v>
+        <v>0.1306126319278422</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000010617438756</v>
+        <v>1.001360621932871</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02982140129700976</v>
+        <v>0.1361730820744319</v>
       </c>
       <c r="P8" t="n">
-        <v>2668.216879133471</v>
+        <v>146.1420773782074</v>
       </c>
       <c r="Q8" t="n">
-        <v>4285.665098733572</v>
+        <v>230.2445092941132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_24</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994140931636887</v>
+        <v>0.9974356704061602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7849326544110932</v>
+        <v>0.8112871962857764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9986775630810767</v>
+        <v>0.9780902773129534</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9980803175293049</v>
+        <v>0.9979192206702533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9985395763397703</v>
+        <v>0.9957911660670781</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008316097031515845</v>
+        <v>0.01714768380165893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3052568776100613</v>
+        <v>1.261923387379575</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009871021365131082</v>
+        <v>0.03722975042634089</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004134020923287078</v>
+        <v>0.02883377142689539</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002560562422047098</v>
+        <v>0.03303179555687073</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03267873883992826</v>
+        <v>0.2258872171572762</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02883764385575882</v>
+        <v>0.1309491649521253</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000010791837353</v>
+        <v>1.001367642450048</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03006532205685076</v>
+        <v>0.1365239420062782</v>
       </c>
       <c r="P9" t="n">
-        <v>2668.184294667994</v>
+        <v>146.1317843395757</v>
       </c>
       <c r="Q9" t="n">
-        <v>4285.632514268096</v>
+        <v>230.2342162554815</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995037337154876</v>
+        <v>0.9974095242374942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7849325490585317</v>
+        <v>0.811073628491664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998857354889339</v>
+        <v>0.9795056044542044</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9985433815523105</v>
+        <v>0.998057069818036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9988622238977759</v>
+        <v>0.9960660852357549</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0007043779522110551</v>
+        <v>0.01732252335192032</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3052570271427291</v>
+        <v>1.263351516202194</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008529007424626175</v>
+        <v>0.03482477812280937</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003136816234934067</v>
+        <v>0.02692356847469436</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001994864101010335</v>
+        <v>0.03087417329875187</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03365413674049839</v>
+        <v>0.2368457797421039</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02654011967213138</v>
+        <v>0.1316150574665388</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000009140745072</v>
+        <v>1.001381587073336</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02766998751219559</v>
+        <v>0.1372181829436178</v>
       </c>
       <c r="P10" t="n">
-        <v>2668.51639096386</v>
+        <v>146.1114953927899</v>
       </c>
       <c r="Q10" t="n">
-        <v>4285.964610563961</v>
+        <v>230.2139273086957</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995153413185521</v>
+        <v>0.9973680921085936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7849268541385996</v>
+        <v>0.8108342647301608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9988859606147837</v>
+        <v>0.9809451572764264</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9986262454686277</v>
+        <v>0.9981971542697761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9989192028211447</v>
+        <v>0.996345600086373</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006879026446357422</v>
+        <v>0.01759958018865615</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3052651102548909</v>
+        <v>1.264952142777534</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008315486671394925</v>
+        <v>0.03237864071329558</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002958369450598518</v>
+        <v>0.02498239047268822</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001894962891518844</v>
+        <v>0.0286804831822319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0338465202319044</v>
+        <v>0.2485104399525094</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02622789821231854</v>
+        <v>0.1326634093812463</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000008926944248</v>
+        <v>1.00140368420875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.027344474138451</v>
+        <v>0.138311165369722</v>
       </c>
       <c r="P11" t="n">
-        <v>2668.563726469867</v>
+        <v>146.0797604602796</v>
       </c>
       <c r="Q11" t="n">
-        <v>4286.011946069969</v>
+        <v>230.1821923761854</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9995259863072515</v>
+        <v>0.9973087335462102</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7849183555127219</v>
+        <v>0.8105661355773596</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9989152378404745</v>
+        <v>0.9824038362714499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9987154630819194</v>
+        <v>0.9983389136095475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9989802289653185</v>
+        <v>0.9966286558391892</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000672793628417232</v>
+        <v>0.01799651116863536</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3052771728206528</v>
+        <v>1.266745123656937</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000809695366148681</v>
+        <v>0.02990000345655944</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002766240030392798</v>
+        <v>0.02301800321539228</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001787965685304639</v>
+        <v>0.02645900333597585</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03405205753907912</v>
+        <v>0.2609377852513163</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02593826571722234</v>
+        <v>0.1341510759130741</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000008730873849</v>
+        <v>1.001435342108688</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02704251138841664</v>
+        <v>0.139862164945704</v>
       </c>
       <c r="P12" t="n">
-        <v>2668.608143839197</v>
+        <v>146.0351547276739</v>
       </c>
       <c r="Q12" t="n">
-        <v>4286.056363439298</v>
+        <v>230.1375866435798</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9995350412559753</v>
+        <v>0.9972284737104338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7849062361164864</v>
+        <v>0.8102656899024906</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9989448120038127</v>
+        <v>0.9838753359983785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9988110556027745</v>
+        <v>0.9984817115265839</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999045233899529</v>
+        <v>0.9969140205285284</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0006599414431318494</v>
+        <v>0.01853320906003456</v>
       </c>
       <c r="H13" t="n">
-        <v>0.305294374544342</v>
+        <v>1.268754205268211</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007876204229895999</v>
+        <v>0.02739958077351159</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002560382297482467</v>
+        <v>0.02103922418716847</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001673992462109141</v>
+        <v>0.02421940248034003</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03428824528429986</v>
+        <v>0.2741642074396839</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02568932547055001</v>
+        <v>0.136136729283594</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00000856409045</v>
+        <v>1.001478147354435</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02678297324006611</v>
+        <v>0.1419323516910761</v>
       </c>
       <c r="P13" t="n">
-        <v>2668.646718898815</v>
+        <v>145.97638214362</v>
       </c>
       <c r="Q13" t="n">
-        <v>4286.094938498916</v>
+        <v>230.0788140595259</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9995416774552635</v>
+        <v>0.9971239020965844</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7848894431934865</v>
+        <v>0.8099291986012556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9989739535143961</v>
+        <v>0.9853519110187604</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9989129255715068</v>
+        <v>0.9986248505401021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9991139938429872</v>
+        <v>0.9972002327060814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0006505223215615934</v>
+        <v>0.0192324799233532</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3053182096608579</v>
+        <v>1.27100432414897</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007658684233694294</v>
+        <v>0.02489053397817775</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002341006130526485</v>
+        <v>0.01905571851741831</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001553435577038368</v>
+        <v>0.02197315036265383</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03454509437513463</v>
+        <v>0.2882592708948553</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02550533907952595</v>
+        <v>0.1386812169089715</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000008441858077</v>
+        <v>1.001533918881822</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02659115416747181</v>
+        <v>0.1445851634224814</v>
       </c>
       <c r="P14" t="n">
-        <v>2668.675469892265</v>
+        <v>145.9023095330468</v>
       </c>
       <c r="Q14" t="n">
-        <v>4286.123689492366</v>
+        <v>230.0047414489527</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9995448338553566</v>
+        <v>0.996991161888649</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7848667279185311</v>
+        <v>0.8095523686001933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999001864596215</v>
+        <v>0.9868251682110373</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990207446843209</v>
+        <v>0.9987675056407571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9991861508465504</v>
+        <v>0.9974856634705626</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0006460422698163463</v>
+        <v>0.02012011430502972</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3053504506962786</v>
+        <v>1.273524188101216</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000745034848548915</v>
+        <v>0.02238712494987864</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002108818529135069</v>
+        <v>0.01707891852408543</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001426922622720449</v>
+        <v>0.01973303093569455</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03483216060189326</v>
+        <v>0.3032587262123228</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02541736158251573</v>
+        <v>0.1418453887337538</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000008383720239</v>
+        <v>1.001604713659387</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02649943128627534</v>
+        <v>0.1478840405925833</v>
       </c>
       <c r="P15" t="n">
-        <v>2668.68929124634</v>
+        <v>145.8120705052045</v>
       </c>
       <c r="Q15" t="n">
-        <v>4286.137510846442</v>
+        <v>229.9145024211103</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9995431231356686</v>
+        <v>0.996825893804155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7848364886643207</v>
+        <v>0.8091304839639802</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990273517302724</v>
+        <v>0.9882855046340485</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9991339140412379</v>
+        <v>0.9989086973237947</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9992610758173848</v>
+        <v>0.9977684089959152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0006484703880832061</v>
+        <v>0.02122526274703057</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3053933709280611</v>
+        <v>1.276345332606173</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0007260105728941817</v>
+        <v>0.01990567133479729</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001865109219646871</v>
+        <v>0.01512239739861856</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001295556588318288</v>
+        <v>0.01751398581846772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03515200963871067</v>
+        <v>0.3192453326500265</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02546508174114519</v>
+        <v>0.1456889245860184</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000008415230041</v>
+        <v>1.001692856637784</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02654918299085201</v>
+        <v>0.151891203723295</v>
       </c>
       <c r="P16" t="n">
-        <v>2668.681788434839</v>
+        <v>145.705126335463</v>
       </c>
       <c r="Q16" t="n">
-        <v>4286.130008034941</v>
+        <v>229.8075582513689</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9995348056573256</v>
+        <v>0.9966231582100686</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7847966679133398</v>
+        <v>0.8086582553750961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9990489791764877</v>
+        <v>0.9897216569904994</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999251480822704</v>
+        <v>0.9990473770749935</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9993378815222498</v>
+        <v>0.9980463053034152</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006602758412153114</v>
+        <v>0.02258095659819752</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3054498907036467</v>
+        <v>1.279503127354454</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000709867271039132</v>
+        <v>0.01746531211306788</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00161193009138787</v>
+        <v>0.01320068461031956</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001160893060855819</v>
+        <v>0.01533299836169372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03550020018121108</v>
+        <v>0.3362693323426906</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0256958331488845</v>
+        <v>0.1502696130233838</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00000856842995</v>
+        <v>1.001800982287963</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02678975796374005</v>
+        <v>0.1566669015507712</v>
       </c>
       <c r="P17" t="n">
-        <v>2668.645705738043</v>
+        <v>145.5812967126262</v>
       </c>
       <c r="Q17" t="n">
-        <v>4286.093925338145</v>
+        <v>229.683728628532</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9995176459904025</v>
+        <v>0.9963773458082854</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7847448053446695</v>
+        <v>0.8081298418461407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9990648824696653</v>
+        <v>0.9911215523089242</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9993720275481806</v>
+        <v>0.9991823289193833</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9994152954823657</v>
+        <v>0.998316991654469</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0006846314974931867</v>
+        <v>0.02422470526078426</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3055235020914369</v>
+        <v>1.2830366310557</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0006979966294617674</v>
+        <v>0.01508656209087935</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001352333677417692</v>
+        <v>0.01133063016526296</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001025163078787617</v>
+        <v>0.01320859612807115</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03588828744516747</v>
+        <v>0.3544044367899156</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02616546383103473</v>
+        <v>0.1556428773210784</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000008884494421</v>
+        <v>1.001932082235581</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02727938179629895</v>
+        <v>0.1622689168338091</v>
       </c>
       <c r="P18" t="n">
-        <v>2668.573259648637</v>
+        <v>145.4407645760336</v>
       </c>
       <c r="Q18" t="n">
-        <v>4286.021479248739</v>
+        <v>229.5431964919395</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9994888154834649</v>
+        <v>0.9960821750128371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7846777894920328</v>
+        <v>0.8075387613506988</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9990725833248667</v>
+        <v>0.9924712553872501</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9994935217747833</v>
+        <v>0.999312203043291</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9994915474822011</v>
+        <v>0.9985777616404815</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0007255522170175015</v>
+        <v>0.02619851372908343</v>
       </c>
       <c r="H19" t="n">
-        <v>0.305618621366147</v>
+        <v>1.286989189050395</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006922485060438944</v>
+        <v>0.01279310044038357</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001090696827312798</v>
+        <v>0.009530938698950261</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008914703629672614</v>
+        <v>0.01116201956966692</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03631945484929845</v>
+        <v>0.3737232894867413</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02693607649635524</v>
+        <v>0.1618595493910799</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00000941552448</v>
+        <v>1.00208950665982</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02808280103817029</v>
+        <v>0.1687502455041159</v>
       </c>
       <c r="P19" t="n">
-        <v>2668.45715502879</v>
+        <v>145.2841051954435</v>
       </c>
       <c r="Q19" t="n">
-        <v>4285.905374628891</v>
+        <v>229.3865371113494</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999444730931153</v>
+        <v>0.9957305637375972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7845917630227306</v>
+        <v>0.8068777985734649</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9990690500403461</v>
+        <v>0.9937556727090312</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996131644418312</v>
+        <v>0.9994355155263954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995642711476864</v>
+        <v>0.9988256736751288</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0007881238396537201</v>
+        <v>0.02854973994563435</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3057407234516083</v>
+        <v>1.291409050185212</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006948858437114525</v>
+        <v>0.010610574581147</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0008330472959739678</v>
+        <v>0.007822173189277127</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007639638796732779</v>
+        <v>0.009216354861801062</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03679380956343685</v>
+        <v>0.3943076410152645</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02807354341107869</v>
+        <v>0.1689666829455865</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000010227519303</v>
+        <v>1.002277032673281</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02926869227433463</v>
+        <v>0.1761599444478325</v>
       </c>
       <c r="P20" t="n">
-        <v>2668.291710647067</v>
+        <v>145.1122149033119</v>
       </c>
       <c r="Q20" t="n">
-        <v>4285.739930247169</v>
+        <v>229.2146468192177</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9993809129518437</v>
+        <v>0.995314450125328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7844818780041419</v>
+        <v>0.8061389615669636</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990504802214315</v>
+        <v>0.9949582665947555</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997271862614195</v>
+        <v>0.9995505555594983</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996303413125742</v>
+        <v>0.9990574198334148</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0008787041973831</v>
+        <v>0.03133229358690458</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3058966892844437</v>
+        <v>1.296349656649717</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0007087468511159805</v>
+        <v>0.008567085904029787</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000587502214907229</v>
+        <v>0.006228040658252684</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0006481229863509012</v>
+        <v>0.007397563281141236</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03731839031394367</v>
+        <v>0.4162395907098929</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02964294515366346</v>
+        <v>0.1770093036732945</v>
       </c>
       <c r="N21" t="n">
-        <v>1.00001140298477</v>
+        <v>1.002498959933158</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0309049066982107</v>
+        <v>0.184544956190439</v>
       </c>
       <c r="P21" t="n">
-        <v>2668.074124477328</v>
+        <v>144.926211938655</v>
       </c>
       <c r="Q21" t="n">
-        <v>4285.522344077429</v>
+        <v>229.0286438545608</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9992917047184404</v>
+        <v>0.9948249059131065</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7843422447999867</v>
+        <v>0.8053134128705886</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999012111737495</v>
+        <v>0.9960608910821209</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998305506650964</v>
+        <v>0.9996555181956341</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996856499021488</v>
+        <v>0.9992694511903095</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001005322335116762</v>
+        <v>0.03460587798817447</v>
       </c>
       <c r="H22" t="n">
-        <v>0.306094878348406</v>
+        <v>1.30187010458368</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0007373861093871793</v>
+        <v>0.006693468649035596</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000364907794191006</v>
+        <v>0.004773552613587151</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000551150374952077</v>
+        <v>0.00573349752226014</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03789747079530959</v>
+        <v>0.4396093406568472</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03170681843258264</v>
+        <v>0.1860265518364904</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000013046114165</v>
+        <v>1.002760050179677</v>
       </c>
       <c r="O22" t="n">
-        <v>0.03305664333542013</v>
+        <v>0.1939460872762192</v>
       </c>
       <c r="P22" t="n">
-        <v>2667.80489411487</v>
+        <v>144.7274634545917</v>
       </c>
       <c r="Q22" t="n">
-        <v>4285.253113714972</v>
+        <v>228.8298953704975</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9991700316156261</v>
+        <v>0.9942517112914248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7841654191662104</v>
+        <v>0.8043912496863987</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9989480026765866</v>
+        <v>0.9970438468973863</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999166228847092</v>
+        <v>0.9997483154234428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999724864275541</v>
+        <v>0.9994577843916235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001178019642337081</v>
+        <v>0.03843883306267837</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3063458566673142</v>
+        <v>1.308036614042527</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0007852388198545776</v>
+        <v>0.005023196496112148</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001795519542410281</v>
+        <v>0.003487643042383331</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004823957706229428</v>
+        <v>0.00425541976924774</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03853733441543397</v>
+        <v>0.4645164299069868</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03432229075013905</v>
+        <v>0.1960582389563835</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000015287215061</v>
+        <v>1.003065753977907</v>
       </c>
       <c r="O23" t="n">
-        <v>0.035783461724309</v>
+        <v>0.2044048440852612</v>
       </c>
       <c r="P23" t="n">
-        <v>2667.487841039164</v>
+        <v>144.5173741054226</v>
       </c>
       <c r="Q23" t="n">
-        <v>4284.936060639266</v>
+        <v>228.6198060213285</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9990070593640183</v>
+        <v>0.9935834674281447</v>
       </c>
       <c r="C24" t="n">
-        <v>0.783942368385465</v>
+        <v>0.8033616308625886</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988508723428954</v>
+        <v>0.9978862661503503</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999768043664942</v>
+        <v>0.9998266908255304</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999741147881763</v>
+        <v>0.9996181733458339</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00140933509623195</v>
+        <v>0.04290738285341177</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3066624448722431</v>
+        <v>1.314921679858305</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008577394877766903</v>
+        <v>0.003591728878279841</v>
       </c>
       <c r="J24" t="n">
-        <v>4.995161215775025e-05</v>
+        <v>0.002401579567521292</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004538457057868375</v>
+        <v>0.002996654222900567</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03924070387839426</v>
+        <v>0.491062774725785</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03754111208038395</v>
+        <v>0.2071409733814432</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000018289006342</v>
+        <v>1.003422150704989</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03913931494246116</v>
+        <v>0.2159593934592188</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.129274497538</v>
+        <v>144.2974227467392</v>
       </c>
       <c r="Q24" t="n">
-        <v>4284.57749409764</v>
+        <v>228.399854662645</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9987918256101305</v>
+        <v>0.992807329236903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7836620645384822</v>
+        <v>0.80221252287599</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9987118913224386</v>
+        <v>0.9985657552203273</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999987906258</v>
+        <v>0.9998881154127998</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997258082937234</v>
+        <v>0.9997459594769608</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001714828166266363</v>
+        <v>0.04809742251203331</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3070602954937672</v>
+        <v>1.322605770255846</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009614786229025771</v>
+        <v>0.002437117802000525</v>
       </c>
       <c r="J25" t="n">
-        <v>2.604377733196416e-09</v>
+        <v>0.001550406891978315</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004807406224974777</v>
+        <v>0.00199376234698942</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04003950102580137</v>
+        <v>0.5193564912407961</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04141048377242607</v>
+        <v>0.2193112457491255</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000022253403958</v>
+        <v>1.003836091073652</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04317341379813713</v>
+        <v>0.2286477795175301</v>
       </c>
       <c r="P25" t="n">
-        <v>2666.736884795962</v>
+        <v>144.0690533786692</v>
       </c>
       <c r="Q25" t="n">
-        <v>4284.185104396063</v>
+        <v>228.1714852945751</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9987910030904783</v>
+        <v>0.9919088644376031</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7836591020805299</v>
+        <v>0.8009304961334467</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9987134971626477</v>
+        <v>0.999058548557948</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999992865</v>
+        <v>0.9999297897669113</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997261508653718</v>
+        <v>0.9998360986176116</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0017159956135147</v>
+        <v>0.05410546076200164</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3070645002727962</v>
+        <v>1.331178688986423</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0009602799810024797</v>
+        <v>0.001599746501896126</v>
       </c>
       <c r="J26" t="n">
-        <v>1.536556501085225e-12</v>
+        <v>0.000972917110319929</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004801399912467528</v>
+        <v>0.001286331806108027</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03989537509293534</v>
+        <v>0.5495231894412111</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04142457740900564</v>
+        <v>0.232605805520846</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000022268553974</v>
+        <v>1.004315272299945</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04318810743000373</v>
+        <v>0.2425083162222655</v>
       </c>
       <c r="P26" t="n">
-        <v>2666.735523668293</v>
+        <v>143.8336403198483</v>
       </c>
       <c r="Q26" t="n">
-        <v>4284.183743268395</v>
+        <v>227.9360722357542</v>
       </c>
     </row>
   </sheetData>
